--- a/sources/case/OvertimeRequest.xlsx
+++ b/sources/case/OvertimeRequest.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14160" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -82,6 +82,9 @@
     <t>发起加班审批</t>
   </si>
   <si>
+    <t>OvertimeRequest</t>
+  </si>
+  <si>
     <t>duration</t>
   </si>
   <si>
@@ -100,24 +103,12 @@
     <t>reason</t>
   </si>
   <si>
-    <t>噢耶</t>
-  </si>
-  <si>
     <t>end_time</t>
   </si>
   <si>
     <t>check_type</t>
   </si>
   <si>
-    <t>申请调休</t>
-  </si>
-  <si>
-    <t>af3e3766-239c-4125-87c0-532b07f2a6fa</t>
-  </si>
-  <si>
-    <t>60fc80dc-103f-11e7-a7d7-00163e007053</t>
-  </si>
-  <si>
     <t>OvertimeRequest_01</t>
   </si>
   <si>
@@ -142,57 +133,81 @@
     <t>是</t>
   </si>
   <si>
-    <t>加班时长等于4小时</t>
-  </si>
-  <si>
     <t>2017-06-26T23:00:00+08:00</t>
   </si>
   <si>
-    <t>加班时长等于60分钟</t>
-  </si>
-  <si>
     <t>2017-10-01T19:00:00+08:00</t>
   </si>
   <si>
     <t>2017-10-01T20:00:00+08:00</t>
   </si>
   <si>
-    <t>加班时长小于4小时</t>
-  </si>
-  <si>
-    <t>2017-10-01T22:30:00+08:00</t>
-  </si>
-  <si>
-    <t>2017-10-06T10:00:00+08:00</t>
-  </si>
-  <si>
     <t>加班时长等于5天</t>
   </si>
   <si>
-    <t>加班时长小于5天</t>
-  </si>
-  <si>
     <t>加班时长大于5天</t>
   </si>
   <si>
     <t>2017-10-06T19:00:00+08:00</t>
   </si>
   <si>
-    <t>2017-10-06T18:00:00+08:00</t>
-  </si>
-  <si>
-    <t>OvertimeRequest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>${Auth.tenant_id}</t>
+  </si>
+  <si>
+    <t>${Auth.user_id}</t>
+  </si>
+  <si>
+    <t>默认审批流程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定部门发起</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小于60分钟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>等于60分钟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-10-06T20:00:00+08:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-10-06T20:00:00+08:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-10-01T19:30:00+08:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>调休</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -222,15 +237,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 3" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -511,10 +529,18 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
@@ -538,7 +564,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
@@ -557,7 +583,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -566,17 +592,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="26.875" customWidth="1"/>
-    <col min="4" max="5" width="26.125" customWidth="1"/>
-    <col min="6" max="6" width="10.875" customWidth="1"/>
-    <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="14.625" customWidth="1"/>
+    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
@@ -587,19 +615,19 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
         <v>25</v>
       </c>
       <c r="F1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
         <v>26</v>
@@ -607,164 +635,163 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F2" s="1">
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
         <v>37</v>
-      </c>
-      <c r="D3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" t="s">
-        <v>42</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="H3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F4" s="1">
         <v>3.5</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
         <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F5" s="1">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
         <v>34</v>
       </c>
-      <c r="B6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F6" s="1">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F7" s="1">
         <v>121</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="H7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -772,14 +799,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="13.125" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
@@ -799,33 +833,33 @@
         <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H1" t="s">
         <v>25</v>
       </c>
       <c r="I1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s">
-        <v>29</v>
+        <v>27</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -834,33 +868,33 @@
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2">
+        <v>35</v>
+      </c>
+      <c r="I2" s="1">
         <v>4</v>
       </c>
       <c r="J2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="K2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" t="s">
-        <v>29</v>
+      <c r="B3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -869,33 +903,33 @@
         <v>15</v>
       </c>
       <c r="F3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" t="s">
         <v>37</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H3" t="s">
+      <c r="C4" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -904,33 +938,33 @@
         <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="J4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4">
-        <v>3.5</v>
-      </c>
-      <c r="J4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
+      <c r="C5" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -939,33 +973,33 @@
         <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I5">
-        <v>120</v>
-      </c>
-      <c r="J5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
+      <c r="C6" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -974,33 +1008,33 @@
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="1">
+        <v>120</v>
+      </c>
+      <c r="J6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H6" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6">
-        <v>119</v>
-      </c>
-      <c r="J6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
+      <c r="C7" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -1009,26 +1043,26 @@
         <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H7" t="s">
-        <v>45</v>
-      </c>
-      <c r="I7">
+        <v>49</v>
+      </c>
+      <c r="I7" s="1">
         <v>121</v>
       </c>
       <c r="J7" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="K7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/sources/case/OvertimeRequest.xlsx
+++ b/sources/case/OvertimeRequest.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14160" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -592,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -702,7 +702,7 @@
         <v>50</v>
       </c>
       <c r="F4" s="1">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
@@ -792,6 +792,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -799,8 +800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -947,7 +948,7 @@
         <v>50</v>
       </c>
       <c r="I4" s="1">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="J4" t="s">
         <v>45</v>

--- a/sources/case/OvertimeRequest.xlsx
+++ b/sources/case/OvertimeRequest.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14160" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="57">
   <si>
     <t>CaseID</t>
   </si>
@@ -190,6 +190,26 @@
   </si>
   <si>
     <t>调休</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>!!Int4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>!!Int1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>!!Int1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>!!Int120</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>!!Int121</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -241,10 +261,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -592,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -649,7 +672,7 @@
       <c r="E2" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="2">
         <v>4</v>
       </c>
       <c r="G2" t="s">
@@ -675,7 +698,7 @@
       <c r="E3" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
         <v>1</v>
       </c>
       <c r="G3" t="s">
@@ -701,7 +724,7 @@
       <c r="E4" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="2">
         <v>0.5</v>
       </c>
       <c r="G4" t="s">
@@ -727,7 +750,7 @@
       <c r="E5" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="2">
         <v>1</v>
       </c>
       <c r="G5" t="s">
@@ -753,7 +776,7 @@
       <c r="E6" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <v>120</v>
       </c>
       <c r="G6" t="s">
@@ -779,7 +802,7 @@
       <c r="E7" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="2">
         <v>121</v>
       </c>
       <c r="G7" t="s">
@@ -800,8 +823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -856,10 +879,10 @@
       <c r="A2" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D2" t="s">
@@ -877,8 +900,8 @@
       <c r="H2" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="1">
-        <v>4</v>
+      <c r="I2" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="J2" t="s">
         <v>43</v>
@@ -891,10 +914,10 @@
       <c r="A3" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D3" t="s">
@@ -912,8 +935,8 @@
       <c r="H3" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="1">
-        <v>1</v>
+      <c r="I3" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="J3" t="s">
         <v>44</v>
@@ -926,10 +949,10 @@
       <c r="A4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D4" t="s">
@@ -947,7 +970,7 @@
       <c r="H4" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="3">
         <v>0.5</v>
       </c>
       <c r="J4" t="s">
@@ -961,10 +984,10 @@
       <c r="A5" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D5" t="s">
@@ -982,8 +1005,8 @@
       <c r="H5" t="s">
         <v>48</v>
       </c>
-      <c r="I5" s="1">
-        <v>1</v>
+      <c r="I5" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="J5" t="s">
         <v>46</v>
@@ -996,10 +1019,10 @@
       <c r="A6" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D6" t="s">
@@ -1017,8 +1040,8 @@
       <c r="H6" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="1">
-        <v>120</v>
+      <c r="I6" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="J6" t="s">
         <v>38</v>
@@ -1031,10 +1054,10 @@
       <c r="A7" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D7" t="s">
@@ -1052,8 +1075,8 @@
       <c r="H7" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="1">
-        <v>121</v>
+      <c r="I7" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="J7" t="s">
         <v>39</v>

--- a/sources/case/OvertimeRequest.xlsx
+++ b/sources/case/OvertimeRequest.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14160" activeTab="2"/>
+    <workbookView xWindow="7605" yWindow="465" windowWidth="25605" windowHeight="14160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
     <sheet name="Params" sheetId="2" r:id="rId2"/>
     <sheet name="Expectations" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="70">
   <si>
     <t>CaseID</t>
   </si>
@@ -58,12 +58,6 @@
     <t>application/json</t>
   </si>
   <si>
-    <t>tenant_id</t>
-  </si>
-  <si>
-    <t>user_id</t>
-  </si>
-  <si>
     <t>approval_create</t>
   </si>
   <si>
@@ -103,12 +97,18 @@
     <t>reason</t>
   </si>
   <si>
+    <t>噢耶</t>
+  </si>
+  <si>
     <t>end_time</t>
   </si>
   <si>
     <t>check_type</t>
   </si>
   <si>
+    <t>申请调休</t>
+  </si>
+  <si>
     <t>OvertimeRequest_01</t>
   </si>
   <si>
@@ -133,64 +133,82 @@
     <t>是</t>
   </si>
   <si>
+    <t>加班时长等于4小时</t>
+  </si>
+  <si>
     <t>2017-06-26T23:00:00+08:00</t>
   </si>
   <si>
+    <t>加班时长等于60分钟</t>
+  </si>
+  <si>
     <t>2017-10-01T19:00:00+08:00</t>
   </si>
   <si>
     <t>2017-10-01T20:00:00+08:00</t>
   </si>
   <si>
+    <t>加班时长小于4小时</t>
+  </si>
+  <si>
+    <t>2017-10-01T22:30:00+08:00</t>
+  </si>
+  <si>
+    <t>2017-10-06T10:00:00+08:00</t>
+  </si>
+  <si>
     <t>加班时长等于5天</t>
   </si>
   <si>
+    <t>加班时长小于5天</t>
+  </si>
+  <si>
     <t>加班时长大于5天</t>
   </si>
   <si>
     <t>2017-10-06T19:00:00+08:00</t>
   </si>
   <si>
-    <t>${Auth.tenant_id}</t>
-  </si>
-  <si>
-    <t>${Auth.user_id}</t>
-  </si>
-  <si>
-    <t>默认审批流程</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>指定部门发起</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>小于60分钟</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>等于60分钟</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017-10-06T20:00:00+08:00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017-10-06T20:00:00+08:00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017-10-01T19:30:00+08:00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>调休</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>2017-10-06T18:00:00+08:00</t>
+  </si>
+  <si>
+    <t>OvertimeRequest_1</t>
+  </si>
+  <si>
+    <t>考勤需要审批</t>
+  </si>
+  <si>
+    <t>OvertimeRequest_2</t>
+  </si>
+  <si>
+    <t>OvertimeRequest_3</t>
+  </si>
+  <si>
+    <t>OvertimeRequest_4</t>
+  </si>
+  <si>
+    <t>{Date.LastMonth}-02T18:00:00+08:00</t>
+  </si>
+  <si>
+    <t>{Date.LastMonth}-03T01:00:00+08:00</t>
+  </si>
+  <si>
+    <t>{Date.LastMonth}-05T09:30:00+08:00</t>
+  </si>
+  <si>
+    <t>{Date.LastMonth}-05T19:30:00+08:00</t>
+  </si>
+  <si>
+    <t>{Date.LastMonth}-01T19:00:00+08:00</t>
+  </si>
+  <si>
+    <t>{Date.LastMonth}-01T22:00:00+08:00</t>
+  </si>
+  <si>
+    <t>{Date.LastMonth}-05T10:00:00+08:00</t>
+  </si>
+  <si>
+    <t>{Date.LastMonth}-06T19:00:00+08:00</t>
   </si>
   <si>
     <t>!!Int4</t>
@@ -201,11 +219,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>!!Int1</t>
+    <t>!!Int7</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>!!Int8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>!!Int16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>!!Int3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>!!Int120</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>!!Int119</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -226,11 +260,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -257,21 +289,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 3" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -552,17 +579,12 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
@@ -587,13 +609,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -613,20 +635,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="30.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -638,22 +660,22 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>25</v>
-      </c>
-      <c r="F1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -661,25 +683,25 @@
         <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
       <c r="E2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="2">
-        <v>4</v>
+        <v>36</v>
+      </c>
+      <c r="F2" t="s">
+        <v>61</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -687,22 +709,22 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
         <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="F3" t="s">
+        <v>62</v>
       </c>
       <c r="G3" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
         <v>33</v>
@@ -713,25 +735,25 @@
         <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.5</v>
+        <v>41</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3.5</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -739,22 +761,22 @@
         <v>30</v>
       </c>
       <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
         <v>46</v>
       </c>
-      <c r="C5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1</v>
+      <c r="F5" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H5" t="s">
         <v>33</v>
@@ -765,25 +787,25 @@
         <v>31</v>
       </c>
       <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
         <v>38</v>
       </c>
-      <c r="C6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" t="s">
-        <v>36</v>
-      </c>
       <c r="E6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="2">
-        <v>120</v>
+        <v>47</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="H6" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
@@ -791,24 +813,473 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="30.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" t="s">
         <v>39</v>
       </c>
+      <c r="G3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="2">
-        <v>121</v>
-      </c>
-      <c r="G7" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="H7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" t="s">
         <v>33</v>
       </c>
     </row>
@@ -817,276 +1288,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="28.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="J4" t="s">
-        <v>45</v>
-      </c>
-      <c r="K4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J5" t="s">
-        <v>46</v>
-      </c>
-      <c r="K5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J6" t="s">
-        <v>38</v>
-      </c>
-      <c r="K6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="J7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>